--- a/bootstrapping_data.xlsx
+++ b/bootstrapping_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,19 +487,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9988154240582985</v>
+        <v>0.9999505379360136</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.1]</t>
+          <t>[0.02]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.0, 0.9048374180359595]</t>
+          <t>[1.0, 0.9801986733067553]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -519,19 +519,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10011</v>
+        <v>0.020102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9987095174374844</v>
+        <v>0.9998493067846792</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.10011]</t>
+          <t>[0.020102]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[1.0, 0.9047378913940413]</t>
+          <t>[1.0, 0.9800986981408981]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -551,19 +551,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0987696392106036</v>
+        <v>0.01995016227258008</v>
       </c>
       <c r="E4" t="n">
-        <v>1.000000781954541</v>
+        <v>1.000000003743523</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.0987696392106036]</t>
+          <t>[0.019950162272580077]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059513796627178]</t>
+          <t>[1.0, 0.9802475253983814]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -574,33 +574,33 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09877045089650696</v>
+        <v>0.03</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999994842367</v>
+        <v>1.009767734852203</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.09877045089650696]</t>
+          <t>[0.019950166044441858, 0.03]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506443150522]</t>
+          <t>[1.0, 0.9802475217010232, 0.9512768292067524]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.0, 1]</t>
+          <t>[0.0, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -609,25 +609,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.030103</v>
       </c>
       <c r="E6" t="n">
-        <v>1.044673370994968</v>
+        <v>1.009667907420021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.15]</t>
+          <t>[0.019950166044441858, 0.030102999999999998]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7797589462265732]</t>
+          <t>[1.0, 0.9802475217010232, 0.9511788527392188]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -641,25 +641,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.150115</v>
+        <v>0.04007815855606643</v>
       </c>
       <c r="E7" t="n">
-        <v>1.044574970043644</v>
+        <v>1.000048328546238</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.15011499999999997]</t>
+          <t>[0.019950166044441858, 0.04007815855606643]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7796692791037154]</t>
+          <t>[1.0, 0.9802475217010232, 0.9417378588578393]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -673,25 +673,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2022092276074309</v>
+        <v>0.04012827095351549</v>
       </c>
       <c r="E8" t="n">
-        <v>1.001117531598526</v>
+        <v>1.000000243184195</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20220922760743093]</t>
+          <t>[0.019950166044441858, 0.04012827095351549]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7400928127830306]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416906672984144]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -705,25 +705,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2035487830469411</v>
+        <v>0.04012852438912514</v>
       </c>
       <c r="E9" t="n">
-        <v>1.000028959437442</v>
+        <v>1.000000000006095</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.2035487830469411]</t>
+          <t>[0.019950166044441858, 0.04012852438912514]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7391020811480482]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286404962]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -734,33 +734,33 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2035844194276395</v>
+        <v>0.04</v>
       </c>
       <c r="E10" t="n">
-        <v>1.000000019437413</v>
+        <v>1.019252210440473</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.2035844194276395]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.04]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757426942158]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.9047662187828657]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.0, 1, 2]</t>
+          <t>[0.0, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -769,25 +769,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.040104</v>
       </c>
       <c r="E11" t="n">
-        <v>1.083653375438032</v>
+        <v>1.019155743585738</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.2]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.040104]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.6051040249145357]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.9046721279889184]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -801,25 +801,25 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20012</v>
+        <v>0.06075562524889328</v>
       </c>
       <c r="E12" t="n">
-        <v>1.083571213756462</v>
+        <v>1.00019620615873</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.20012]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.06075562524889328]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.6050314167881207]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8861807736812188]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -833,25 +833,25 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3221786708936609</v>
+        <v>0.06096933119909765</v>
       </c>
       <c r="E13" t="n">
-        <v>1.004756884668428</v>
+        <v>1.000002037101933</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3221786708936609]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.06096933119909765]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5355111516233009]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8859914118115264]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -865,25 +865,25 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.329545156281207</v>
+        <v>0.06097157327006081</v>
       </c>
       <c r="E14" t="n">
-        <v>1.00029175315636</v>
+        <v>1.000000000218564</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.32954515628120695]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.06097157327006081]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5315808107227539]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8859894253581352]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -894,65 +894,65 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
       <c r="D15" t="n">
-        <v>0.3300264848506535</v>
+        <v>0.05</v>
       </c>
       <c r="E15" t="n">
-        <v>1.000001106163323</v>
+        <v>1.027976785028894</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300264848506535]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.0609715735106419, 0.05]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313250072592797]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8859894251449829, 0.8016763838553503]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0.0, 1, 2, 3]</t>
+          <t>[0.0, 1, 2, 3, 5]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3300283167223837</v>
+        <v>0.050105</v>
       </c>
       <c r="E16" t="n">
-        <v>1.000000000258522</v>
+        <v>1.027798698334231</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283167223837]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.0609715735106419, 0.050105000000000004]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240339409109]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8859894251449829, 0.8015080494904677]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.0, 1, 2, 3]</t>
+          <t>[0.0, 1, 2, 3, 5]</t>
         </is>
       </c>
     </row>
@@ -961,25 +961,25 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3</v>
+        <v>0.06649512577900572</v>
       </c>
       <c r="E17" t="n">
-        <v>1.225460573939583</v>
+        <v>1.000446201279481</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.3]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.0609715735106419, 0.06649512577900572]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.2915968122383196]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8859894251449829, 0.7756603751352633]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -993,25 +993,25 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.30013</v>
+        <v>0.06676247013664008</v>
       </c>
       <c r="E18" t="n">
-        <v>1.225353945832161</v>
+        <v>1.000007315083697</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.30012999999999995]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.0609715735106419, 0.06676247013664008]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.29152100692225574]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8859894251449829, 0.7752457491435949]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1025,188 +1025,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5748794414603769</v>
+        <v>0.06676692606706278</v>
       </c>
       <c r="E19" t="n">
-        <v>1.047458398337569</v>
+        <v>1.00000000195511</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.574879441460377]</t>
+          <t>[0.019950166044441858, 0.040128524395477594, 0.0609715735106419, 0.06676692606706278]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.16827729516715403]</t>
+          <t>[1.0, 0.9802475217010232, 0.9416904286345141, 0.8859894251449829, 0.775238840292143]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t>[0.0, 1, 2, 3, 5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.6481669615904815</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.012917426705233</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.6481669615904815]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.1453345236538882]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>[0.0, 1, 2, 3, 5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6755745915716432</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.00109390169334</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.6755745915716432]</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.13758238275025053]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>[0.0, 1, 2, 3, 5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.678110320367977</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.000028199451024</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.678110320367977]</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.13688640583104156]</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>[0.0, 1, 2, 3, 5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6781774180592117</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.000000063656313</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.6781774180592117]</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.13686803753995366]</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>[0.0, 1, 2, 3, 5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6781775698655389</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.000000000003715</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>[0.09877045036148625, 0.20358444336264492, 0.3300283171506112, 0.6781775698655389]</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>[1.0, 0.9059506447997546, 0.7390757250044341, 0.5313240337133833, 0.1368679959850918]</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>[0.0, 1, 2, 3, 5]</t>
         </is>
@@ -1264,10 +1104,10 @@
         <v>0.05</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9950736519347415</v>
+        <v>0.9990029890438017</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.004938522518074323</v>
+        <v>-0.0009975083022221339</v>
       </c>
     </row>
     <row r="4">
@@ -1275,10 +1115,10 @@
         <v>0.1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9901715727747431</v>
+        <v>0.9980069721184502</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.009877045036148639</v>
+        <v>-0.00199501660444419</v>
       </c>
     </row>
     <row r="5">
@@ -1286,10 +1126,10 @@
         <v>0.15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9852936429629303</v>
+        <v>0.9970119482328859</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01481556755422294</v>
+        <v>-0.002992524906666314</v>
       </c>
     </row>
     <row r="6">
@@ -1297,10 +1137,10 @@
         <v>0.2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9804397435312084</v>
+        <v>0.9960179163970371</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01975409007229721</v>
+        <v>-0.003990033208888425</v>
       </c>
     </row>
     <row r="7">
@@ -1308,10 +1148,10 @@
         <v>0.25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9950248756218195</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.02469261259037152</v>
+        <v>-0.00498754151111046</v>
       </c>
     </row>
     <row r="8">
@@ -1319,10 +1159,10 @@
         <v>0.3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9708035628631624</v>
+        <v>0.9940328249191347</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02963113510844589</v>
+        <v>-0.005985049813332604</v>
       </c>
     </row>
     <row r="9">
@@ -1330,10 +1170,10 @@
         <v>0.35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9660210466095054</v>
+        <v>0.9930417633018697</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03456965762652022</v>
+        <v>-0.006982558115554637</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1181,10 @@
         <v>0.4</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9612620906955417</v>
+        <v>0.9920516897838952</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03950818014459452</v>
+        <v>-0.007980066417776741</v>
       </c>
     </row>
     <row r="11">
@@ -1352,10 +1192,10 @@
         <v>0.45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9565265790548374</v>
+        <v>0.9910626033800657</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.04444670266266882</v>
+        <v>-0.00897757471999884</v>
       </c>
     </row>
     <row r="12">
@@ -1363,10 +1203,10 @@
         <v>0.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9518143961927423</v>
+        <v>0.9900745031062174</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.04938522518074309</v>
+        <v>-0.009975083022220955</v>
       </c>
     </row>
     <row r="13">
@@ -1374,10 +1214,10 @@
         <v>0.55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9471254271835731</v>
+        <v>0.989087387979168</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05432374769881738</v>
+        <v>-0.010972591324443</v>
       </c>
     </row>
     <row r="14">
@@ -1385,10 +1225,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9424595576678101</v>
+        <v>0.9881012570167151</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05926227021689177</v>
+        <v>-0.01197009962666516</v>
       </c>
     </row>
     <row r="15">
@@ -1396,10 +1236,10 @@
         <v>0.65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9378166738493089</v>
+        <v>0.9871161092376363</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06420079273496611</v>
+        <v>-0.01296760792888718</v>
       </c>
     </row>
     <row r="16">
@@ -1407,10 +1247,10 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9331966624925243</v>
+        <v>0.9861319436616864</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0691393152530403</v>
+        <v>-0.01396511623110937</v>
       </c>
     </row>
     <row r="17">
@@ -1418,10 +1258,10 @@
         <v>0.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9285994109197485</v>
+        <v>0.9851487593095987</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07407783777111471</v>
+        <v>-0.01496262453333144</v>
       </c>
     </row>
     <row r="18">
@@ -1429,10 +1269,10 @@
         <v>0.8</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9240248070083639</v>
+        <v>0.9841665552030819</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07901636028918899</v>
+        <v>-0.01596013283555346</v>
       </c>
     </row>
     <row r="19">
@@ -1440,10 +1280,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9194727391881073</v>
+        <v>0.9831853303648205</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.08395488280726333</v>
+        <v>-0.01695764113777564</v>
       </c>
     </row>
     <row r="20">
@@ -1451,10 +1291,10 @@
         <v>0.9</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9149430964383501</v>
+        <v>0.9822050838184734</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0888934053253376</v>
+        <v>-0.01795514943999769</v>
       </c>
     </row>
     <row r="21">
@@ -1462,10 +1302,10 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9104357682853894</v>
+        <v>0.9812258145886728</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09383192784341197</v>
+        <v>-0.01895265774221976</v>
       </c>
     </row>
     <row r="22">
@@ -1473,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9059506447997546</v>
+        <v>0.9802475217010232</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.09877045036148623</v>
+        <v>-0.01995016604444188</v>
       </c>
     </row>
     <row r="23">
@@ -1484,10 +1324,10 @@
         <v>1.05</v>
       </c>
       <c r="B23" t="n">
-        <v>0.896775548807425</v>
+        <v>0.9782826991664956</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1089496725296185</v>
+        <v>-0.02195659226421573</v>
       </c>
     </row>
     <row r="24">
@@ -1495,10 +1335,10 @@
         <v>1.1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.887693374418443</v>
+        <v>0.9763218149511237</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1191288946977508</v>
+        <v>-0.02396301848398964</v>
       </c>
     </row>
     <row r="25">
@@ -1506,10 +1346,10 @@
         <v>1.15</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8787031805609792</v>
+        <v>0.9743648611608829</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.129308116865883</v>
+        <v>-0.02596944470376348</v>
       </c>
     </row>
     <row r="26">
@@ -1517,10 +1357,10 @@
         <v>1.2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8698040356939933</v>
+        <v>0.9724118299175712</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1394873390340153</v>
+        <v>-0.02797587092353746</v>
       </c>
     </row>
     <row r="27">
@@ -1528,10 +1368,10 @@
         <v>1.25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8609950177107102</v>
+        <v>0.9704627133587782</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1496665612021475</v>
+        <v>-0.02998229714331128</v>
       </c>
     </row>
     <row r="28">
@@ -1539,10 +1379,10 @@
         <v>1.3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.852275213843073</v>
+        <v>0.9685175036378524</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1598457833702798</v>
+        <v>-0.03198872336308521</v>
       </c>
     </row>
     <row r="29">
@@ -1550,10 +1390,10 @@
         <v>1.35</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8436437205671653</v>
+        <v>0.9665761929238708</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.170025005538412</v>
+        <v>-0.03399514958285905</v>
       </c>
     </row>
     <row r="30">
@@ -1561,10 +1401,10 @@
         <v>1.4</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8350996435095893</v>
+        <v>0.9646387734016064</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1802042277065442</v>
+        <v>-0.03600157580263291</v>
       </c>
     </row>
     <row r="31">
@@ -1572,10 +1412,10 @@
         <v>1.45</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8266420973547938</v>
+        <v>0.9627052372714975</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1903834498746766</v>
+        <v>-0.03800800202240683</v>
       </c>
     </row>
     <row r="32">
@@ -1583,10 +1423,10 @@
         <v>1.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8182702057533399</v>
+        <v>0.9607755767496158</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2005626720428088</v>
+        <v>-0.04001442824218068</v>
       </c>
     </row>
     <row r="33">
@@ -1594,10 +1434,10 @@
         <v>1.55</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8099831012310956</v>
+        <v>0.9588497840676351</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.210741894210941</v>
+        <v>-0.04202085446195458</v>
       </c>
     </row>
     <row r="34">
@@ -1605,10 +1445,10 @@
         <v>1.6</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8017799250993509</v>
+        <v>0.9569278514728005</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2209211163790732</v>
+        <v>-0.04402728068172843</v>
       </c>
     </row>
     <row r="35">
@@ -1616,10 +1456,10 @@
         <v>1.65</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7936598273658421</v>
+        <v>0.9550097712278963</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2311003385472056</v>
+        <v>-0.04603370690150235</v>
       </c>
     </row>
     <row r="36">
@@ -1627,10 +1467,10 @@
         <v>1.7</v>
       </c>
       <c r="B36" t="n">
-        <v>0.785621966646678</v>
+        <v>0.953095535611216</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2412795607153378</v>
+        <v>-0.04804013312127627</v>
       </c>
     </row>
     <row r="37">
@@ -1638,10 +1478,10 @@
         <v>1.75</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7776655100791581</v>
+        <v>0.9511851369165302</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.25145878288347</v>
+        <v>-0.05004655934105009</v>
       </c>
     </row>
     <row r="38">
@@ -1649,10 +1489,10 @@
         <v>1.8</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7697896332354727</v>
+        <v>0.9492785674530559</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2616380050516023</v>
+        <v>-0.05205298556082402</v>
       </c>
     </row>
     <row r="39">
@@ -1660,10 +1500,10 @@
         <v>1.85</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7619935200372788</v>
+        <v>0.9473758195454262</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2718172272197346</v>
+        <v>-0.05405941178059786</v>
       </c>
     </row>
     <row r="40">
@@ -1671,10 +1511,10 @@
         <v>1.9</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7542763626711395</v>
+        <v>0.9454768855336579</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2819964493878668</v>
+        <v>-0.05606583800037181</v>
       </c>
     </row>
     <row r="41">
@@ -1682,10 +1522,10 @@
         <v>1.95</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7466373615048204</v>
+        <v>0.9435817577731226</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2921756715559991</v>
+        <v>-0.05807226422014568</v>
       </c>
     </row>
     <row r="42">
@@ -1693,10 +1533,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7390757250044341</v>
+        <v>0.9416904286345141</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3023548937241313</v>
+        <v>-0.06007869043991954</v>
       </c>
     </row>
     <row r="43">
@@ -1704,10 +1544,10 @@
         <v>2.05</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7269800018623338</v>
+        <v>0.9388239827876896</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.3188563095816619</v>
+        <v>-0.06312726911545169</v>
       </c>
     </row>
     <row r="44">
@@ -1715,10 +1555,10 @@
         <v>2.1</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7150822374860009</v>
+        <v>0.9359662622199409</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.3353577254391924</v>
+        <v>-0.06617584779098376</v>
       </c>
     </row>
     <row r="45">
@@ -1726,10 +1566,10 @@
         <v>2.15</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7033791920796424</v>
+        <v>0.9331172403720728</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.3518591412967229</v>
+        <v>-0.06922442646651578</v>
       </c>
     </row>
     <row r="46">
@@ -1737,10 +1577,10 @@
         <v>2.2</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6918676788700069</v>
+        <v>0.9302768907657342</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3683605571542535</v>
+        <v>-0.07227300514204796</v>
       </c>
     </row>
     <row r="47">
@@ -1748,10 +1588,10 @@
         <v>2.25</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6805445632386162</v>
+        <v>0.927445187003173</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3848619730117841</v>
+        <v>-0.07532158381758003</v>
       </c>
     </row>
     <row r="48">
@@ -1759,10 +1599,10 @@
         <v>2.3</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6694067618681999</v>
+        <v>0.92462210276699</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.4013633888693147</v>
+        <v>-0.07837016249311211</v>
       </c>
     </row>
     <row r="49">
@@ -1770,10 +1610,10 @@
         <v>2.35</v>
       </c>
       <c r="B49" t="n">
-        <v>0.658451241903099</v>
+        <v>0.9218076118198942</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.4178648047268452</v>
+        <v>-0.08141874116864424</v>
       </c>
     </row>
     <row r="50">
@@ -1781,10 +1621,10 @@
         <v>2.4</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6476750201234104</v>
+        <v>0.9190016880044598</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.4343662205843759</v>
+        <v>-0.08446731984417627</v>
       </c>
     </row>
     <row r="51">
@@ -1792,10 +1632,10 @@
         <v>2.45</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6370751621326478</v>
+        <v>0.916204305242882</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.4508676364419063</v>
+        <v>-0.08751589851970834</v>
       </c>
     </row>
     <row r="52">
@@ -1803,10 +1643,10 @@
         <v>2.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6266487815586967</v>
+        <v>0.9134154375367354</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4673690522994368</v>
+        <v>-0.09056447719524048</v>
       </c>
     </row>
     <row r="53">
@@ -1814,10 +1654,10 @@
         <v>2.55</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6163930392678469</v>
+        <v>0.9106350589667322</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.4838704681569674</v>
+        <v>-0.09361305587077252</v>
       </c>
     </row>
     <row r="54">
@@ -1825,10 +1665,10 @@
         <v>2.6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6063051425916886</v>
+        <v>0.9078631436924812</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.5003718840144979</v>
+        <v>-0.09666163454630472</v>
       </c>
     </row>
     <row r="55">
@@ -1836,10 +1676,10 @@
         <v>2.65</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5963823445666598</v>
+        <v>0.9050996659522479</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.5168732998720286</v>
+        <v>-0.09971021322183678</v>
       </c>
     </row>
     <row r="56">
@@ -1847,10 +1687,10 @@
         <v>2.7</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5866219431860413</v>
+        <v>0.9023446000627146</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.5333747157295592</v>
+        <v>-0.1027587918973688</v>
       </c>
     </row>
     <row r="57">
@@ -1858,10 +1698,10 @@
         <v>2.75</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5770212806641914</v>
+        <v>0.899597920418742</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.5498761315870895</v>
+        <v>-0.1058073705729009</v>
       </c>
     </row>
     <row r="58">
@@ -1869,10 +1709,10 @@
         <v>2.8</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5675777427128235</v>
+        <v>0.8968596014931314</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.5663775474446202</v>
+        <v>-0.1088559492484331</v>
       </c>
     </row>
     <row r="59">
@@ -1880,10 +1720,10 @@
         <v>2.85</v>
       </c>
       <c r="B59" t="n">
-        <v>0.558288757829128</v>
+        <v>0.8941296178363872</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.5828789633021506</v>
+        <v>-0.1119045279239652</v>
       </c>
     </row>
     <row r="60">
@@ -1891,10 +1731,10 @@
         <v>2.9</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5491517965955444</v>
+        <v>0.8914079440764806</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.5993803791596815</v>
+        <v>-0.1149531065994972</v>
       </c>
     </row>
     <row r="61">
@@ -1902,10 +1742,10 @@
         <v>2.95</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5401643709909939</v>
+        <v>0.8886945549186133</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.6158817950172119</v>
+        <v>-0.1180016852750293</v>
       </c>
     </row>
     <row r="62">
@@ -1913,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5313240337133833</v>
+        <v>0.8859894251449829</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.6323832108747424</v>
+        <v>-0.1210502639505614</v>
       </c>
     </row>
     <row r="63">
@@ -1924,10 +1764,10 @@
         <v>3.05</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5136094694529199</v>
+        <v>0.88303661711294</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.6662920893680195</v>
+        <v>-0.1243886102539146</v>
       </c>
     </row>
     <row r="64">
@@ -1935,10 +1775,10 @@
         <v>3.1</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4964855161323474</v>
+        <v>0.8800936501411024</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.7002009678612964</v>
+        <v>-0.1277269565572677</v>
       </c>
     </row>
     <row r="65">
@@ -1946,10 +1786,10 @@
         <v>3.15</v>
       </c>
       <c r="B65" t="n">
-        <v>0.479932482537296</v>
+        <v>0.8771604914313793</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.7341098463545734</v>
+        <v>-0.1310653028606208</v>
       </c>
     </row>
     <row r="66">
@@ -1957,10 +1797,10 @@
         <v>3.2</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4639313339666729</v>
+        <v>0.8742371082949887</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7680187248478503</v>
+        <v>-0.134403649163974</v>
       </c>
     </row>
     <row r="67">
@@ -1968,10 +1808,10 @@
         <v>3.25</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4484636703442357</v>
+        <v>0.8713234681520932</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8019276033411271</v>
+        <v>-0.1377419954673271</v>
       </c>
     </row>
     <row r="68">
@@ -1979,10 +1819,10 @@
         <v>3.3</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4335117050599366</v>
+        <v>0.8684195385314366</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.8358364818344043</v>
+        <v>-0.1410803417706803</v>
       </c>
     </row>
     <row r="69">
@@ -1990,10 +1830,10 @@
         <v>3.35</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4190582445167046</v>
+        <v>0.8655252870699827</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.869745360327681</v>
+        <v>-0.1444186880740334</v>
       </c>
     </row>
     <row r="70">
@@ -2001,10 +1841,10 @@
         <v>3.4</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4050866683591452</v>
+        <v>0.8626406815125538</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.9036542388209582</v>
+        <v>-0.1477570343773865</v>
       </c>
     </row>
     <row r="71">
@@ -2012,10 +1852,10 @@
         <v>3.45</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3915809103614258</v>
+        <v>0.8597656897114717</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.9375631173142349</v>
+        <v>-0.1510953806807397</v>
       </c>
     </row>
     <row r="72">
@@ -2023,10 +1863,10 @@
         <v>3.5</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3785254399523644</v>
+        <v>0.8569002796261996</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.9714719958075119</v>
+        <v>-0.1544337269840927</v>
       </c>
     </row>
     <row r="73">
@@ -2034,10 +1874,10 @@
         <v>3.55</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3659052443564815</v>
+        <v>0.8540444193229844</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.005380874300789</v>
+        <v>-0.1577720732874459</v>
       </c>
     </row>
     <row r="74">
@@ -2045,10 +1885,10 @@
         <v>3.6</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3537058113304761</v>
+        <v>0.8511980769745013</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.039289752794066</v>
+        <v>-0.1611104195907991</v>
       </c>
     </row>
     <row r="75">
@@ -2056,10 +1896,10 @@
         <v>3.65</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3419131124752742</v>
+        <v>0.8483612208594992</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.073198631287343</v>
+        <v>-0.1644487658941523</v>
       </c>
     </row>
     <row r="76">
@@ -2067,10 +1907,10 @@
         <v>3.7</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3305135871044615</v>
+        <v>0.8455338193624466</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.10710750978062</v>
+        <v>-0.1677871121975054</v>
       </c>
     </row>
     <row r="77">
@@ -2078,10 +1918,10 @@
         <v>3.75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3194941266505483</v>
+        <v>0.8427158409731801</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.141016388273897</v>
+        <v>-0.1711254585008584</v>
       </c>
     </row>
     <row r="78">
@@ -2089,10 +1929,10 @@
         <v>3.8</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3088420595911372</v>
+        <v>0.839907254286552</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.174925266767174</v>
+        <v>-0.1744638048042117</v>
       </c>
     </row>
     <row r="79">
@@ -2100,10 +1940,10 @@
         <v>3.85</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2985451368776573</v>
+        <v>0.8371080280020819</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.208834145260451</v>
+        <v>-0.1778021511075648</v>
       </c>
     </row>
     <row r="80">
@@ -2111,10 +1951,10 @@
         <v>3.9</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2885915178499117</v>
+        <v>0.8343181309236065</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.242743023753728</v>
+        <v>-0.1811404974109179</v>
       </c>
     </row>
     <row r="81">
@@ -2122,10 +1962,10 @@
         <v>3.95</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2789697566202387</v>
+        <v>0.8315375319589325</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.276651902247004</v>
+        <v>-0.184478843714271</v>
       </c>
     </row>
     <row r="82">
@@ -2133,10 +1973,10 @@
         <v>4</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2696687889116316</v>
+        <v>0.8287662001194902</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.310560780740281</v>
+        <v>-0.1878171900176243</v>
       </c>
     </row>
     <row r="83">
@@ -2144,10 +1984,10 @@
         <v>4.05</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2606779193346809</v>
+        <v>0.8260041045199881</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.344469659233558</v>
+        <v>-0.1911555363209773</v>
       </c>
     </row>
     <row r="84">
@@ -2155,10 +1995,10 @@
         <v>4.100000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2519868090887077</v>
+        <v>0.8232512143780679</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.378378537726836</v>
+        <v>-0.1944938826243306</v>
       </c>
     </row>
     <row r="85">
@@ -2166,10 +2006,10 @@
         <v>4.15</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2435854640729485</v>
+        <v>0.8205074990139632</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.412287416220112</v>
+        <v>-0.1978322289276836</v>
       </c>
     </row>
     <row r="86">
@@ -2177,10 +2017,10 @@
         <v>4.2</v>
       </c>
       <c r="B86" t="n">
-        <v>0.235464223394115</v>
+        <v>0.8177729278501558</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.446196294713389</v>
+        <v>-0.2011705752310367</v>
       </c>
     </row>
     <row r="87">
@@ -2188,10 +2028,10 @@
         <v>4.25</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2276137482571194</v>
+        <v>0.8150474704110356</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.480105173206666</v>
+        <v>-0.2045089215343899</v>
       </c>
     </row>
     <row r="88">
@@ -2199,10 +2039,10 @@
         <v>4.3</v>
       </c>
       <c r="B88" t="n">
-        <v>0.220025011226186</v>
+        <v>0.8123310963225615</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.514014051699943</v>
+        <v>-0.207847267837743</v>
       </c>
     </row>
     <row r="89">
@@ -2210,10 +2050,10 @@
         <v>4.350000000000001</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2126892858440022</v>
+        <v>0.8096237753119219</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.54792293019322</v>
+        <v>-0.2111856141410963</v>
       </c>
     </row>
     <row r="90">
@@ -2221,10 +2061,10 @@
         <v>4.4</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2055981365969722</v>
+        <v>0.8069254772071982</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.581831808686497</v>
+        <v>-0.2145239604444494</v>
       </c>
     </row>
     <row r="91">
@@ -2232,10 +2072,10 @@
         <v>4.45</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1987434092150309</v>
+        <v>0.804236171937028</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.615740687179774</v>
+        <v>-0.2178623067478025</v>
       </c>
     </row>
     <row r="92">
@@ -2243,10 +2083,10 @@
         <v>4.5</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1921172212948692</v>
+        <v>0.8015558295302703</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.649649565673051</v>
+        <v>-0.2212006530511556</v>
       </c>
     </row>
     <row r="93">
@@ -2254,10 +2094,10 @@
         <v>4.55</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1857119532357822</v>
+        <v>0.798884420115671</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.683558444166328</v>
+        <v>-0.2245389993545087</v>
       </c>
     </row>
     <row r="94">
@@ -2265,10 +2105,10 @@
         <v>4.600000000000001</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1795202394777214</v>
+        <v>0.7962219139215304</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.717467322659605</v>
+        <v>-0.2278773456578619</v>
       </c>
     </row>
     <row r="95">
@@ -2276,10 +2116,10 @@
         <v>4.65</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1735349600314743</v>
+        <v>0.7935682812753718</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.751376201152882</v>
+        <v>-0.231215691961215</v>
       </c>
     </row>
     <row r="96">
@@ -2287,10 +2127,10 @@
         <v>4.7</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1677492322912291</v>
+        <v>0.7909234926036098</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.785285079646159</v>
+        <v>-0.2345540382645681</v>
       </c>
     </row>
     <row r="97">
@@ -2298,10 +2138,10 @@
         <v>4.75</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1621564031201147</v>
+        <v>0.7882875184312215</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.819193958139436</v>
+        <v>-0.2378923845679213</v>
       </c>
     </row>
     <row r="98">
@@ -2309,10 +2149,10 @@
         <v>4.800000000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1567500411996101</v>
+        <v>0.7856603293814176</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.853102836632713</v>
+        <v>-0.2412307308712746</v>
       </c>
     </row>
     <row r="99">
@@ -2320,10 +2160,10 @@
         <v>4.850000000000001</v>
       </c>
       <c r="B99" t="n">
-        <v>0.151523929634029</v>
+        <v>0.7830418961753156</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.88701171512599</v>
+        <v>-0.2445690771746276</v>
       </c>
     </row>
     <row r="100">
@@ -2331,10 +2171,10 @@
         <v>4.9</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1464720588015722</v>
+        <v>0.7804321896316125</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.920920593619267</v>
+        <v>-0.2479074234779808</v>
       </c>
     </row>
     <row r="101">
@@ -2342,10 +2182,10 @@
         <v>4.95</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1415886194437311</v>
+        <v>0.7778311806662608</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.954829472112543</v>
+        <v>-0.2512457697813338</v>
       </c>
     </row>
     <row r="102">
@@ -2353,10 +2193,10 @@
         <v>5</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1368679959850918</v>
+        <v>0.775238840292143</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.98873835060582</v>
+        <v>-0.254584116084687</v>
       </c>
     </row>
   </sheetData>
